--- a/Mail/contents.xlsx
+++ b/Mail/contents.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="6540" yWindow="500" windowWidth="19180" windowHeight="15940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mail Address</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,15 +61,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>icists@icists.org</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박기현, EX 권기훈, icists, 2019년 2월 14일(목), 권기훈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
+    <t>icists@icists.org, media@icists.org</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +438,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -472,26 +468,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="icists@icists.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mail/contents.xlsx
+++ b/Mail/contents.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihayeon/ICISTS19/Mail/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\ICISTS\Mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8958D4-FD81-41BA-8064-D704ECC397D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="500" windowWidth="19180" windowHeight="15940"/>
+    <workbookView xWindow="6540" yWindow="500" windowWidth="19180" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,16 +20,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,12 +68,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,13 +81,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,7 +118,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,23 +430,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -467,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0</v>
       </c>
@@ -484,7 +480,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="icists@icists.org"/>
+    <hyperlink ref="C2" r:id="rId1" display="icists@icists.org" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
